--- a/monte_carlo/results/scenario3/heat_map.xlsx
+++ b/monte_carlo/results/scenario3/heat_map.xlsx
@@ -360,12 +360,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>10.732951072581599</v>
       </c>
@@ -382,7 +385,7 @@
         <v>57.700078454533397</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5.2243152318461099E-2</v>
       </c>
@@ -399,7 +402,7 @@
         <v>64.112231963060097</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-0.488089403909999</v>
       </c>
@@ -416,7 +419,7 @@
         <v>71.785191842247798</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -433,7 +436,7 @@
         <v>7.3293988000973496</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>

--- a/monte_carlo/results/scenario3/heat_map.xlsx
+++ b/monte_carlo/results/scenario3/heat_map.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,7 +368,7 @@
     <col min="1" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>10.732951072581599</v>
       </c>
@@ -385,7 +385,7 @@
         <v>57.700078454533397</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5.2243152318461099E-2</v>
       </c>
@@ -402,7 +402,7 @@
         <v>64.112231963060097</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-0.488089403909999</v>
       </c>
@@ -419,7 +419,7 @@
         <v>71.785191842247798</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>7.3293988000973496</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
